--- a/Files/Vaccine_June 9, 2010.xlsx
+++ b/Files/Vaccine_June 9, 2010.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="315">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">58160-0810-11</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose vials 5 pack - 1 dose T-L syringes No Needle </t>
+    <t xml:space="preserve">10 pack - 1 dose vials </t>
   </si>
   <si>
     <t xml:space="preserve">$14.25</t>
@@ -98,6 +98,9 @@
     <t xml:space="preserve">58160-0810-51</t>
   </si>
   <si>
+    <t xml:space="preserve">5 pack - 1 dose T-L syringes No Needle </t>
+  </si>
+  <si>
     <t xml:space="preserve">$21.44</t>
   </si>
   <si>
@@ -110,9 +113,6 @@
     <t xml:space="preserve">58160-0812-11</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose vials 5 pack - 1 dose T-L syringes </t>
-  </si>
-  <si>
     <t xml:space="preserve">$32.75</t>
   </si>
   <si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t xml:space="preserve">58160-0812-46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 pack - 1 dose T-L syringes </t>
   </si>
   <si>
     <t xml:space="preserve">DTaP-Hep B-IPV </t>
@@ -180,7 +183,7 @@
     <t xml:space="preserve">$24.709</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B </t>
+    <t xml:space="preserve">Hepatitis B-Hib </t>
   </si>
   <si>
     <t xml:space="preserve">COMVAX</t>
@@ -222,15 +225,15 @@
     <t xml:space="preserve">58160-0825-11</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose vials 10 pack - 1 dose T-L syringes. No Needle </t>
-  </si>
-  <si>
     <t xml:space="preserve">$28.74</t>
   </si>
   <si>
     <t xml:space="preserve">58160-0825-51</t>
   </si>
   <si>
+    <t xml:space="preserve">10 pack - 1 dose T-L syringes. No Needle </t>
+  </si>
+  <si>
     <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only </t>
   </si>
   <si>
@@ -240,9 +243,6 @@
     <t xml:space="preserve">58160-0815-11</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose vials 5 pack - 1 dose T-L syringes, No Needle </t>
-  </si>
-  <si>
     <t xml:space="preserve">$44.50</t>
   </si>
   <si>
@@ -252,10 +252,13 @@
     <t xml:space="preserve">58160-0815-46</t>
   </si>
   <si>
+    <t xml:space="preserve">5 pack - 1 dose T-L syringes, No Needle </t>
+  </si>
+  <si>
     <t xml:space="preserve">$89.85</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis BPediatricAdolescent</t>
+    <t xml:space="preserve">Hepatitis B Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">ENGERIX B</t>
@@ -276,7 +279,7 @@
     <t xml:space="preserve">10 pack - 1 dose T-L syringes, No Needle</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B PediatricAdolescent</t>
+    <t xml:space="preserve">Hepatitis B  Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">RECOMBIVAX HB</t>
@@ -342,7 +345,7 @@
     <t xml:space="preserve">$130.27</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV - Bivalent Human Papillomavirus Types16 and 18 </t>
+    <t xml:space="preserve">HPV - Bivalent Human Papillomavirus Types 16 and 18 </t>
   </si>
   <si>
     <t xml:space="preserve">Cervarix</t>
@@ -378,7 +381,7 @@
     <t xml:space="preserve">$128.90</t>
   </si>
   <si>
-    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y andW-135) </t>
+    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y and W-135) </t>
   </si>
   <si>
     <t xml:space="preserve">Menactra</t>
@@ -423,7 +426,7 @@
     <t xml:space="preserve">$48.31</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal13-valent  (Pediatric)</t>
+    <t xml:space="preserve">Pneumococcal 13-valent  (Pediatric)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar 13</t>
@@ -480,7 +483,7 @@
     <t xml:space="preserve">$69.59</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotavirus, Live, Oral,Oral </t>
+    <t xml:space="preserve">Rotavirus, Live, Oral, Oral </t>
   </si>
   <si>
     <t xml:space="preserve">Rotarix</t>
@@ -624,9 +627,6 @@
     <t xml:space="preserve">200-2009-30523</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV - Bivalent Human Papillomavirus Types 16 and 18 </t>
-  </si>
-  <si>
     <t xml:space="preserve">$89.17</t>
   </si>
   <si>
@@ -636,9 +636,6 @@
     <t xml:space="preserve">$33.614</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal Polysaccharide(23 Valent)</t>
-  </si>
-  <si>
     <t xml:space="preserve">00006-4739-00</t>
   </si>
   <si>
@@ -658,9 +655,6 @@
   </si>
   <si>
     <t xml:space="preserve">$42.581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tetanus  DiphtheriaToxoids </t>
   </si>
   <si>
     <t xml:space="preserve">Tetanus  Diphtheria Toxoids
@@ -724,7 +718,7 @@
     <t xml:space="preserve">00006-4963-41</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose vial 1 pack-single dose 0.65mL vials </t>
+    <t xml:space="preserve">10 pack - 1 dose vial </t>
   </si>
   <si>
     <t xml:space="preserve">$105.943</t>
@@ -736,13 +730,16 @@
     <t xml:space="preserve">00006-4963-00</t>
   </si>
   <si>
+    <t xml:space="preserve">1 pack-single dose 0.65mL vials </t>
+  </si>
+  <si>
     <t xml:space="preserve">$116.70</t>
   </si>
   <si>
     <t xml:space="preserve">$161.50</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza  (Age 6 monthsand older)</t>
+    <t xml:space="preserve">Influenza   (Age 6 months and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluzone</t>
@@ -760,7 +757,7 @@
     <t xml:space="preserve">200-2010-33744</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza (Age 6-35 months)</t>
+    <t xml:space="preserve">Influenza  (Age 6-35 months)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluzone
@@ -780,7 +777,7 @@
     <t xml:space="preserve">$13.16</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza (Age 36 monthsand older)</t>
+    <t xml:space="preserve">Influenza  (Age 36 months and older)</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0010-50</t>
@@ -798,7 +795,7 @@
     <t xml:space="preserve">49281-0010-10</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza(Age 36 monthsand older)</t>
+    <t xml:space="preserve">Influenza (Age 36 months and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluarix
@@ -820,7 +817,7 @@
     <t xml:space="preserve">200-2010-33739</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza  (Age 4 yearsand older)</t>
+    <t xml:space="preserve">Influenza   (Age 4 years and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluvirin</t>
@@ -850,7 +847,7 @@
     <t xml:space="preserve">$12.75</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza Live, Intranasal (Age2-49 years)</t>
+    <t xml:space="preserve">Influenza  Live, Intranasal (Age 2-49 years)</t>
   </si>
   <si>
     <t xml:space="preserve">FluMist
@@ -1234,13 +1231,13 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" s="1">
         <v>40633</v>
@@ -1254,16 +1251,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
@@ -1283,16 +1280,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
         <v>32</v>
@@ -1312,22 +1309,22 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="1">
         <v>40633</v>
@@ -1341,22 +1338,22 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" s="1">
         <v>40633</v>
@@ -1370,22 +1367,22 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G10" s="1">
         <v>40633</v>
@@ -1399,74 +1396,74 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G11" s="1">
         <v>40633</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G12" s="1">
         <v>40633</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -1486,16 +1483,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
         <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
@@ -1515,16 +1512,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
         <v>75</v>
@@ -1544,22 +1541,22 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
         <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
         <v>75</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G16" s="1">
         <v>40633</v>
@@ -1573,22 +1570,22 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G17" s="1">
         <v>40633</v>
@@ -1602,22 +1599,22 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" t="s">
         <v>84</v>
-      </c>
-      <c r="D18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" t="s">
-        <v>82</v>
-      </c>
-      <c r="F18" t="s">
-        <v>83</v>
       </c>
       <c r="G18" s="1">
         <v>40633</v>
@@ -1631,80 +1628,80 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G19" s="1">
         <v>40633</v>
       </c>
       <c r="H19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G20" s="1">
         <v>40633</v>
       </c>
       <c r="H20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G21" s="1">
         <v>40633</v>
@@ -1718,22 +1715,22 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G22" s="1">
         <v>40633</v>
@@ -1747,51 +1744,51 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G23" s="1">
         <v>40633</v>
       </c>
       <c r="H23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G24" s="1">
         <v>40633</v>
@@ -1805,22 +1802,22 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" t="s">
         <v>113</v>
-      </c>
-      <c r="D25" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25" t="s">
-        <v>111</v>
-      </c>
-      <c r="F25" t="s">
-        <v>112</v>
       </c>
       <c r="G25" s="1">
         <v>40633</v>
@@ -1834,51 +1831,51 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G26" s="1">
         <v>40633</v>
       </c>
       <c r="H26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G27" s="1">
         <v>40633</v>
@@ -1892,167 +1889,167 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G28" s="1">
         <v>40633</v>
       </c>
       <c r="H28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G29" s="1">
         <v>40633</v>
       </c>
       <c r="H29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F30" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G30" s="1">
         <v>40633</v>
       </c>
       <c r="H30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G31" s="1">
         <v>40633</v>
       </c>
       <c r="H31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D32" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G32" s="1">
         <v>40633</v>
       </c>
       <c r="H32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F33" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G33" s="1">
         <v>40633</v>
@@ -2066,22 +2063,22 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C34" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E34" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F34" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G34" s="1">
         <v>40633</v>
@@ -2095,22 +2092,22 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B35" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C35" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F35" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G35" s="1">
         <v>40633</v>
@@ -2124,51 +2121,51 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B36" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C36" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F36" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G36" s="1">
         <v>40633</v>
       </c>
       <c r="H36" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I36" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B37" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C37" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F37" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G37" s="1">
         <v>40633</v>
@@ -2182,22 +2179,22 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" t="s">
+        <v>177</v>
+      </c>
+      <c r="E38" t="s">
+        <v>174</v>
+      </c>
+      <c r="F38" t="s">
         <v>175</v>
-      </c>
-      <c r="D38" t="s">
-        <v>176</v>
-      </c>
-      <c r="E38" t="s">
-        <v>173</v>
-      </c>
-      <c r="F38" t="s">
-        <v>174</v>
       </c>
       <c r="G38" s="1">
         <v>40633</v>
@@ -2211,22 +2208,22 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C39" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F39" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G39" s="1">
         <v>40633</v>
@@ -2240,22 +2237,22 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B40" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C40" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" t="s">
+        <v>182</v>
+      </c>
+      <c r="E40" t="s">
+        <v>174</v>
+      </c>
+      <c r="F40" t="s">
         <v>180</v>
-      </c>
-      <c r="D40" t="s">
-        <v>181</v>
-      </c>
-      <c r="E40" t="s">
-        <v>173</v>
-      </c>
-      <c r="F40" t="s">
-        <v>179</v>
       </c>
       <c r="G40" s="1">
         <v>40633</v>
@@ -2269,31 +2266,31 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B41" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F41" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G41" s="1">
         <v>40633</v>
       </c>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2343,22 +2340,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G2" s="1">
         <v>40359</v>
@@ -2367,27 +2364,27 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G3" s="1">
         <v>40359</v>
@@ -2396,27 +2393,27 @@
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G4" s="1">
         <v>40359</v>
@@ -2425,27 +2422,27 @@
         <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
         <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G5" s="1">
         <v>40359</v>
@@ -2454,27 +2451,27 @@
         <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G6" s="1">
         <v>40359</v>
@@ -2483,27 +2480,27 @@
         <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C7" t="s">
         <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G7" s="1">
         <v>40359</v>
@@ -2512,56 +2509,56 @@
         <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G8" s="1">
         <v>40359</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>202</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
         <v>203</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G9" s="1">
         <v>40359</v>
@@ -2570,27 +2567,27 @@
         <v>25</v>
       </c>
       <c r="I9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>202</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
         <v>203</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G10" s="1">
         <v>40359</v>
@@ -2599,7 +2596,7 @@
         <v>25</v>
       </c>
       <c r="I10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11">
@@ -2607,10 +2604,10 @@
         <v>204</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -2619,85 +2616,85 @@
         <v>205</v>
       </c>
       <c r="F11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G11" s="1">
         <v>40359</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" t="s">
         <v>206</v>
       </c>
-      <c r="B12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>207</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>208</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>209</v>
-      </c>
-      <c r="F12" t="s">
-        <v>210</v>
       </c>
       <c r="G12" s="1">
         <v>40359</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E13" t="s">
         <v>211</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>212</v>
-      </c>
-      <c r="F13" t="s">
-        <v>213</v>
       </c>
       <c r="G13" s="1">
         <v>40359</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" t="s">
         <v>214</v>
-      </c>
-      <c r="B14" t="s">
-        <v>215</v>
-      </c>
-      <c r="C14" t="s">
-        <v>216</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -2706,27 +2703,27 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G14" s="1">
         <v>40359</v>
       </c>
       <c r="H14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -2735,36 +2732,36 @@
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G15" s="1">
         <v>40359</v>
       </c>
       <c r="H15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C16" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G16" s="1">
         <v>40359</v>
@@ -2773,27 +2770,27 @@
         <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" t="s">
+        <v>224</v>
+      </c>
+      <c r="E17" t="s">
+        <v>222</v>
+      </c>
+      <c r="F17" t="s">
         <v>180</v>
-      </c>
-      <c r="D17" t="s">
-        <v>226</v>
-      </c>
-      <c r="E17" t="s">
-        <v>224</v>
-      </c>
-      <c r="F17" t="s">
-        <v>179</v>
       </c>
       <c r="G17" s="1">
         <v>40359</v>
@@ -2802,27 +2799,27 @@
         <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G18" s="1">
         <v>40359</v>
@@ -2831,27 +2828,27 @@
         <v>25</v>
       </c>
       <c r="I18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" t="s">
         <v>227</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F19" t="s">
         <v>175</v>
-      </c>
-      <c r="D19" t="s">
-        <v>229</v>
-      </c>
-      <c r="E19" t="s">
-        <v>224</v>
-      </c>
-      <c r="F19" t="s">
-        <v>174</v>
       </c>
       <c r="G19" s="1">
         <v>40359</v>
@@ -2860,94 +2857,94 @@
         <v>25</v>
       </c>
       <c r="I19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G20" s="1">
         <v>40359</v>
       </c>
       <c r="H20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I20" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>230</v>
+      </c>
+      <c r="B21" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" t="s">
         <v>232</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" t="s">
         <v>233</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
         <v>234</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>235</v>
-      </c>
-      <c r="E21" t="s">
-        <v>236</v>
-      </c>
-      <c r="F21" t="s">
-        <v>237</v>
       </c>
       <c r="G21" s="1">
         <v>40359</v>
       </c>
       <c r="H21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C22" t="s">
+        <v>236</v>
+      </c>
+      <c r="D22" t="s">
+        <v>237</v>
+      </c>
+      <c r="E22" t="s">
         <v>238</v>
       </c>
-      <c r="D22" t="s">
-        <v>235</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>239</v>
-      </c>
-      <c r="F22" t="s">
-        <v>240</v>
       </c>
       <c r="G22" s="1">
         <v>40359</v>
       </c>
       <c r="H22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2997,22 +2994,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" t="s">
         <v>241</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>242</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
         <v>243</v>
       </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>244</v>
-      </c>
-      <c r="F2" t="s">
-        <v>245</v>
       </c>
       <c r="G2" s="1">
         <v>40602</v>
@@ -3021,27 +3018,27 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" t="s">
         <v>247</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>248</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>249</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>250</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>251</v>
-      </c>
-      <c r="F3" t="s">
-        <v>252</v>
       </c>
       <c r="G3" s="1">
         <v>40602</v>
@@ -3050,27 +3047,27 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" t="s">
         <v>253</v>
       </c>
-      <c r="B4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E4" t="s">
         <v>254</v>
       </c>
-      <c r="D4" t="s">
-        <v>250</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>255</v>
-      </c>
-      <c r="F4" t="s">
-        <v>256</v>
       </c>
       <c r="G4" s="1">
         <v>40602</v>
@@ -3079,27 +3076,27 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" t="s">
         <v>257</v>
-      </c>
-      <c r="C5" t="s">
-        <v>258</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F5" t="s">
         <v>255</v>
-      </c>
-      <c r="F5" t="s">
-        <v>256</v>
       </c>
       <c r="G5" s="1">
         <v>40602</v>
@@ -3108,27 +3105,27 @@
         <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B6" t="s">
         <v>259</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>260</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>261</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>262</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>263</v>
-      </c>
-      <c r="F6" t="s">
-        <v>264</v>
       </c>
       <c r="G6" s="1">
         <v>40602</v>
@@ -3137,53 +3134,53 @@
         <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" t="s">
         <v>266</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>267</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
         <v>268</v>
       </c>
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>269</v>
-      </c>
-      <c r="F7" t="s">
-        <v>270</v>
       </c>
       <c r="G7" s="1">
         <v>40602</v>
       </c>
       <c r="H7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C8" t="s">
         <v>272</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>273</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>274</v>
-      </c>
-      <c r="E8" t="s">
-        <v>275</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -3192,126 +3189,126 @@
         <v>40602</v>
       </c>
       <c r="H8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" t="s">
         <v>276</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>277</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>278</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>279</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>280</v>
-      </c>
-      <c r="F9" t="s">
-        <v>281</v>
       </c>
       <c r="G9" s="1">
         <v>40602</v>
       </c>
       <c r="H9" t="s">
+        <v>281</v>
+      </c>
+      <c r="I9" t="s">
         <v>282</v>
-      </c>
-      <c r="I9" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" t="s">
         <v>284</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>273</v>
+      </c>
+      <c r="E10" t="s">
         <v>285</v>
       </c>
-      <c r="D10" t="s">
-        <v>274</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>286</v>
-      </c>
-      <c r="F10" t="s">
-        <v>287</v>
       </c>
       <c r="G10" s="1">
         <v>40602</v>
       </c>
       <c r="H10" t="s">
+        <v>287</v>
+      </c>
+      <c r="I10" t="s">
         <v>288</v>
-      </c>
-      <c r="I10" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C11" t="s">
         <v>290</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
         <v>291</v>
       </c>
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" t="s">
-        <v>292</v>
-      </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G11" s="1">
         <v>40602</v>
       </c>
       <c r="H11" t="s">
+        <v>287</v>
+      </c>
+      <c r="I11" t="s">
         <v>288</v>
-      </c>
-      <c r="I11" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C12" t="s">
+        <v>292</v>
+      </c>
+      <c r="D12" t="s">
+        <v>273</v>
+      </c>
+      <c r="E12" t="s">
         <v>293</v>
       </c>
-      <c r="D12" t="s">
-        <v>274</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>294</v>
-      </c>
-      <c r="F12" t="s">
-        <v>295</v>
       </c>
       <c r="G12" s="1">
         <v>40602</v>
       </c>
       <c r="H12" t="s">
+        <v>287</v>
+      </c>
+      <c r="I12" t="s">
         <v>288</v>
-      </c>
-      <c r="I12" t="s">
-        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -3361,22 +3358,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" t="s">
         <v>242</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
         <v>243</v>
       </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>244</v>
-      </c>
-      <c r="F2" t="s">
-        <v>245</v>
       </c>
       <c r="G2" s="1">
         <v>40602</v>
@@ -3385,27 +3382,27 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3" t="s">
         <v>254</v>
       </c>
-      <c r="D3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>255</v>
-      </c>
-      <c r="F3" t="s">
-        <v>256</v>
       </c>
       <c r="G3" s="1">
         <v>40602</v>
@@ -3414,27 +3411,27 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F4" t="s">
         <v>255</v>
-      </c>
-      <c r="F4" t="s">
-        <v>256</v>
       </c>
       <c r="G4" s="1">
         <v>40602</v>
@@ -3443,24 +3440,24 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5" t="s">
         <v>300</v>
       </c>
-      <c r="C5" t="s">
-        <v>301</v>
-      </c>
       <c r="D5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -3469,56 +3466,56 @@
         <v>40602</v>
       </c>
       <c r="H5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" t="s">
         <v>267</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
         <v>268</v>
       </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>269</v>
-      </c>
-      <c r="F6" t="s">
-        <v>270</v>
       </c>
       <c r="G6" s="1">
         <v>40602</v>
       </c>
       <c r="H6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B7" t="s">
         <v>303</v>
       </c>
-      <c r="B7" t="s">
-        <v>304</v>
-      </c>
       <c r="C7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7" t="s">
         <v>273</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>274</v>
-      </c>
-      <c r="E7" t="s">
-        <v>275</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -3527,30 +3524,30 @@
         <v>40602</v>
       </c>
       <c r="H7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" t="s">
         <v>305</v>
       </c>
-      <c r="C8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D8" t="s">
-        <v>306</v>
-      </c>
       <c r="E8" t="s">
+        <v>262</v>
+      </c>
+      <c r="F8" t="s">
         <v>263</v>
-      </c>
-      <c r="F8" t="s">
-        <v>264</v>
       </c>
       <c r="G8" s="1">
         <v>40602</v>
@@ -3559,27 +3556,27 @@
         <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C9" t="s">
         <v>308</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>309</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>310</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>311</v>
-      </c>
-      <c r="F9" t="s">
-        <v>312</v>
       </c>
       <c r="G9" s="1">
         <v>40602</v>
@@ -3588,36 +3585,36 @@
         <v>25</v>
       </c>
       <c r="I9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B10" t="s">
+        <v>312</v>
+      </c>
+      <c r="C10" t="s">
+        <v>277</v>
+      </c>
+      <c r="D10" t="s">
         <v>313</v>
       </c>
-      <c r="C10" t="s">
-        <v>278</v>
-      </c>
-      <c r="D10" t="s">
-        <v>314</v>
-      </c>
       <c r="E10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F10" t="s">
         <v>280</v>
-      </c>
-      <c r="F10" t="s">
-        <v>281</v>
       </c>
       <c r="G10" s="1">
         <v>40602</v>
       </c>
       <c r="H10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/Files/Vaccine_June 9, 2010.xlsx
+++ b/Files/Vaccine_June 9, 2010.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="314">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -137,8 +137,7 @@
     <t xml:space="preserve">58160-0811-46</t>
   </si>
   <si>
-    <t xml:space="preserve">5 pack - 1 dose
-T-L syringes. No Needle</t>
+    <t xml:space="preserve">5 pack - 1 dose T-L syringes. No Needle</t>
   </si>
   <si>
     <t xml:space="preserve">$49.75</t>
@@ -657,8 +656,7 @@
     <t xml:space="preserve">$42.581</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus  Diphtheria Toxoids
-Adsorbed for Adults No Preservative</t>
+    <t xml:space="preserve">Tetanus  Diphtheria Toxoids Adsorbed for Adults No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">17478-0131-01</t>
@@ -760,9 +758,7 @@
     <t xml:space="preserve">Influenza  (Age 6-35 months)</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluzone
-Pediatric dose
-No Preservative</t>
+    <t xml:space="preserve">Fluzone Pediatric dose No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0010-25</t>
@@ -798,8 +794,7 @@
     <t xml:space="preserve">Influenza (Age 36 months and older)</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluarix
-Preservative-Free</t>
+    <t xml:space="preserve">Fluarix Preservative-Free</t>
   </si>
   <si>
     <t xml:space="preserve">58160-0877-46</t>
@@ -850,8 +845,7 @@
     <t xml:space="preserve">Influenza  Live, Intranasal (Age 2-49 years)</t>
   </si>
   <si>
-    <t xml:space="preserve">FluMist
-No Preservative</t>
+    <t xml:space="preserve">FluMist No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">66019-0108-10</t>
@@ -872,8 +866,7 @@
     <t xml:space="preserve">200-2010-33740</t>
   </si>
   <si>
-    <t xml:space="preserve">Afluria
-No Preservative</t>
+    <t xml:space="preserve">Afluria No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">33332-0010-25</t>
@@ -885,8 +878,7 @@
     <t xml:space="preserve">$12.25</t>
   </si>
   <si>
-    <t xml:space="preserve">Merck
-(CSL product)</t>
+    <t xml:space="preserve">Merck (CSL product)</t>
   </si>
   <si>
     <t xml:space="preserve">200-2010-33742</t>
@@ -922,8 +914,7 @@
     <t xml:space="preserve">No Preservative</t>
   </si>
   <si>
-    <t xml:space="preserve">Agriflu
-No Preservative</t>
+    <t xml:space="preserve">Agriflu No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">46028-0109-01</t>
@@ -935,12 +926,7 @@
     <t xml:space="preserve">Influenza  </t>
   </si>
   <si>
-    <t xml:space="preserve">Fluvirin
-Preservative-free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluarix
-Preservative-free</t>
+    <t xml:space="preserve">Fluarix Preservative-free</t>
   </si>
   <si>
     <t xml:space="preserve">5 pack - 1 dose syringe</t>
@@ -964,8 +950,7 @@
     <t xml:space="preserve">$7.83</t>
   </si>
   <si>
-    <t xml:space="preserve">Flumist
-No Preservative</t>
+    <t xml:space="preserve">Flumist No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">10 pack-1 dose sprayers</t>
@@ -3506,7 +3491,7 @@
         <v>302</v>
       </c>
       <c r="B7" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="C7" t="s">
         <v>272</v>
@@ -3535,13 +3520,13 @@
         <v>295</v>
       </c>
       <c r="B8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C8" t="s">
         <v>260</v>
       </c>
       <c r="D8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E8" t="s">
         <v>262</v>
@@ -3556,7 +3541,7 @@
         <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9">
@@ -3564,19 +3549,19 @@
         <v>302</v>
       </c>
       <c r="B9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C9" t="s">
         <v>307</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>308</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>309</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>310</v>
-      </c>
-      <c r="F9" t="s">
-        <v>311</v>
       </c>
       <c r="G9" s="1">
         <v>40602</v>
@@ -3585,7 +3570,7 @@
         <v>25</v>
       </c>
       <c r="I9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10">
@@ -3593,13 +3578,13 @@
         <v>295</v>
       </c>
       <c r="B10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C10" t="s">
         <v>277</v>
       </c>
       <c r="D10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E10" t="s">
         <v>279</v>
@@ -3614,7 +3599,7 @@
         <v>281</v>
       </c>
       <c r="I10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
